--- a/excel/2025_09_29_FinalV4.xlsx
+++ b/excel/2025_09_29_FinalV4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matevass/Documents/Projects/KGEntityMatching-Public/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E1F6D4-3B76-DE4F-889E-3A2B90DFF116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDD1196D-9A3D-9B4C-858F-D9EB307B1984}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="620" windowWidth="28800" windowHeight="16400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="68">
   <si>
     <t>Name</t>
   </si>
@@ -146,9 +146,6 @@
     <t>union_dogtag_short_2sentences_top10pairs_llm_strict_deduplicated</t>
   </si>
   <si>
-    <t>union_dogtag_short_top1/stats.json</t>
-  </si>
-  <si>
     <t>union_dogtag_short_reranked100_deduplicated</t>
   </si>
   <si>
@@ -218,16 +215,16 @@
     <t>f1</t>
   </si>
   <si>
-    <t>starwars-swg</t>
-  </si>
-  <si>
-    <t>starwars-swtor</t>
-  </si>
-  <si>
     <t>best threshold</t>
   </si>
   <si>
     <t>no threshold</t>
+  </si>
+  <si>
+    <t>union_dogtag_short_top1</t>
+  </si>
+  <si>
+    <t>median threshold</t>
   </si>
 </sst>
 </file>
@@ -252,6 +249,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -276,7 +274,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -505,11 +503,73 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -553,6 +613,27 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -580,24 +661,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -607,14 +670,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -927,8 +993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" activeCellId="3" sqref="E7:S7 E8:S8 E11:S12 E15:S16"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -940,47 +1006,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A1" s="22"/>
-      <c r="B1" s="24" t="s">
+      <c r="A1" s="37"/>
+      <c r="B1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21" t="s">
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21" t="s">
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21" t="s">
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21" t="s">
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A2" s="23"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="29"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="44"/>
       <c r="E2" s="13" t="s">
         <v>8</v>
       </c>
@@ -1725,10 +1791,10 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" t="s">
         <v>45</v>
-      </c>
-      <c r="B15" t="s">
-        <v>46</v>
       </c>
       <c r="C15" t="s">
         <v>13</v>
@@ -1782,10 +1848,10 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C16" t="s">
         <v>15</v>
@@ -1839,10 +1905,10 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C17" t="s">
         <v>17</v>
@@ -1898,10 +1964,10 @@
     </row>
     <row r="18" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C18" t="s">
         <v>17</v>
@@ -2476,7 +2542,7 @@
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="B28" t="s">
         <v>27</v>
@@ -2533,7 +2599,7 @@
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B29" t="s">
         <v>27</v>
@@ -2590,7 +2656,7 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B30" s="11" t="s">
         <v>27</v>
@@ -2649,7 +2715,7 @@
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B31" s="11" t="s">
         <v>27</v>
@@ -2708,10 +2774,10 @@
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C32" t="s">
         <v>13</v>
@@ -2765,10 +2831,10 @@
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C33" t="s">
         <v>15</v>
@@ -2822,10 +2888,10 @@
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C34" t="s">
         <v>17</v>
@@ -2881,10 +2947,10 @@
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C35" s="10" t="s">
         <v>17</v>
@@ -2940,7 +3006,7 @@
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B36" t="s">
         <v>12</v>
@@ -2997,7 +3063,7 @@
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B37" t="s">
         <v>12</v>
@@ -3054,7 +3120,7 @@
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B38" t="s">
         <v>22</v>
@@ -3111,7 +3177,7 @@
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B39" t="s">
         <v>22</v>
@@ -3168,7 +3234,7 @@
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A40" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B40" t="s">
         <v>27</v>
@@ -3225,7 +3291,7 @@
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A41" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B41" t="s">
         <v>27</v>
@@ -3282,10 +3348,10 @@
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A42" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C42" t="s">
         <v>13</v>
@@ -3339,10 +3405,10 @@
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A43" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C43" s="10" t="s">
         <v>15</v>
@@ -3427,143 +3493,143 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56198C9E-BB06-5149-8B68-099670AB2F22}">
-  <dimension ref="A1:Q18"/>
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="43.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="49.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="30"/>
-      <c r="B1" s="32"/>
-      <c r="C1" s="40" t="s">
+      <c r="A1" s="48"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="41"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="40" t="s">
+      <c r="D1" s="46"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="41"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="40" t="s">
+      <c r="G1" s="46"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="41"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="40" t="s">
+      <c r="J1" s="46"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="46"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="47"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A2" s="50"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="H2" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="I2" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="J2" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="K2" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="L2" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="M2" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="N2" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="O2" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="P2" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q2" s="28" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="M1" s="41"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="42"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" s="31"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="43" t="s">
-        <v>62</v>
-      </c>
-      <c r="D2" s="44" t="s">
-        <v>63</v>
-      </c>
-      <c r="E2" s="45" t="s">
-        <v>64</v>
-      </c>
-      <c r="F2" s="43" t="s">
-        <v>62</v>
-      </c>
-      <c r="G2" s="44" t="s">
-        <v>63</v>
-      </c>
-      <c r="H2" s="45" t="s">
-        <v>64</v>
-      </c>
-      <c r="I2" s="43" t="s">
-        <v>62</v>
-      </c>
-      <c r="J2" s="44" t="s">
-        <v>63</v>
-      </c>
-      <c r="K2" s="45" t="s">
-        <v>64</v>
-      </c>
-      <c r="L2" s="43" t="s">
-        <v>62</v>
-      </c>
-      <c r="M2" s="44" t="s">
-        <v>63</v>
-      </c>
-      <c r="N2" s="45" t="s">
-        <v>64</v>
-      </c>
-      <c r="O2" s="43" t="s">
-        <v>62</v>
-      </c>
-      <c r="P2" s="44" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q2" s="45" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" s="36">
+      <c r="C3" s="22">
         <v>0.37404047499999998</v>
       </c>
-      <c r="D3" s="35">
+      <c r="D3" s="21">
         <v>0.32153569300000001</v>
       </c>
       <c r="E3" s="6">
         <v>0.34580645199999999</v>
       </c>
-      <c r="F3" s="36">
+      <c r="F3" s="22">
         <v>0.80707358799999995</v>
       </c>
-      <c r="G3" s="35">
+      <c r="G3" s="21">
         <v>0.75552707500000005</v>
       </c>
       <c r="H3" s="6">
         <v>0.78045013200000002</v>
       </c>
-      <c r="I3" s="36">
+      <c r="I3" s="22">
         <v>0.78003384099999995</v>
       </c>
-      <c r="J3" s="35">
+      <c r="J3" s="21">
         <v>0.77740303499999996</v>
       </c>
       <c r="K3" s="6">
         <v>0.77871621599999996</v>
       </c>
-      <c r="L3" s="36">
+      <c r="L3" s="22">
         <v>0.79759704300000001</v>
       </c>
-      <c r="M3" s="35">
+      <c r="M3" s="21">
         <v>0.76984834999999996</v>
       </c>
       <c r="N3" s="6">
         <v>0.78347707700000002</v>
       </c>
-      <c r="O3" s="36">
+      <c r="O3" s="22">
         <v>0.88832853000000001</v>
       </c>
-      <c r="P3" s="35">
+      <c r="P3" s="21">
         <v>0.862841148</v>
       </c>
       <c r="Q3" s="6">
@@ -3571,11 +3637,11 @@
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="24" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C4" s="9">
         <v>0.37456324248777001</v>
@@ -3624,52 +3690,52 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="23" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" s="36">
+        <v>65</v>
+      </c>
+      <c r="C5" s="22">
         <v>0.350630096</v>
       </c>
-      <c r="D5" s="35">
+      <c r="D5" s="21">
         <v>0.28374325099999997</v>
       </c>
       <c r="E5" s="6">
         <v>0.31366047699999999</v>
       </c>
-      <c r="F5" s="36">
+      <c r="F5" s="22">
         <v>0.75669014099999998</v>
       </c>
-      <c r="G5" s="35">
+      <c r="G5" s="21">
         <v>0.68856135900000004</v>
       </c>
       <c r="H5" s="6">
         <v>0.72101996300000004</v>
       </c>
-      <c r="I5" s="36">
+      <c r="I5" s="22">
         <v>0.73464658199999999</v>
       </c>
-      <c r="J5" s="35">
+      <c r="J5" s="21">
         <v>0.71275997800000002</v>
       </c>
       <c r="K5" s="6">
         <v>0.72353780300000003</v>
       </c>
-      <c r="L5" s="36">
+      <c r="L5" s="22">
         <v>0.76915520599999998</v>
       </c>
-      <c r="M5" s="35">
+      <c r="M5" s="21">
         <v>0.69848349700000001</v>
       </c>
       <c r="N5" s="6">
         <v>0.73211781200000003</v>
       </c>
-      <c r="O5" s="36">
+      <c r="O5" s="22">
         <v>0.85912408799999995</v>
       </c>
-      <c r="P5" s="35">
+      <c r="P5" s="21">
         <v>0.82365290400000002</v>
       </c>
       <c r="Q5" s="6">
@@ -3677,11 +3743,11 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="24" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C6" s="9">
         <v>0.35115070527097197</v>
@@ -3730,52 +3796,52 @@
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="23" t="s">
         <v>21</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C7" s="36">
+        <v>65</v>
+      </c>
+      <c r="C7" s="22">
         <v>0.415702982</v>
       </c>
-      <c r="D7" s="35">
+      <c r="D7" s="21">
         <v>0.409718056</v>
       </c>
       <c r="E7" s="6">
         <v>0.41268882200000001</v>
       </c>
-      <c r="F7" s="36">
+      <c r="F7" s="22">
         <v>0.79319461999999996</v>
       </c>
-      <c r="G7" s="35">
+      <c r="G7" s="21">
         <v>0.736943287</v>
       </c>
       <c r="H7" s="6">
         <v>0.76403499100000005</v>
       </c>
-      <c r="I7" s="36">
+      <c r="I7" s="22">
         <v>0.84338028200000004</v>
       </c>
-      <c r="J7" s="35">
+      <c r="J7" s="21">
         <v>0.84148398000000002</v>
       </c>
       <c r="K7" s="6">
         <v>0.84243106400000001</v>
       </c>
-      <c r="L7" s="36">
+      <c r="L7" s="22">
         <v>0.79528301899999998</v>
       </c>
-      <c r="M7" s="35">
+      <c r="M7" s="21">
         <v>0.75200713600000002</v>
       </c>
       <c r="N7" s="6">
         <v>0.77303988999999995</v>
       </c>
-      <c r="O7" s="36">
+      <c r="O7" s="22">
         <v>0.86827195499999998</v>
       </c>
-      <c r="P7" s="35">
+      <c r="P7" s="21">
         <v>0.85794261699999996</v>
       </c>
       <c r="Q7" s="6">
@@ -3783,11 +3849,11 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8" s="38" t="s">
+      <c r="A8" s="24" t="s">
         <v>21</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C8" s="9">
         <v>0.44202898550724601</v>
@@ -3836,52 +3902,52 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="23" t="s">
         <v>23</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" s="36">
+        <v>65</v>
+      </c>
+      <c r="C9" s="22">
         <v>0.46657842500000002</v>
       </c>
-      <c r="D9" s="35">
+      <c r="D9" s="21">
         <v>0.42291541700000002</v>
       </c>
       <c r="E9" s="6">
         <v>0.44367526699999998</v>
       </c>
-      <c r="F9" s="36">
+      <c r="F9" s="22">
         <v>0.77514512499999999</v>
       </c>
-      <c r="G9" s="35">
+      <c r="G9" s="21">
         <v>0.69881448300000004</v>
       </c>
       <c r="H9" s="6">
         <v>0.73500337000000004</v>
       </c>
-      <c r="I9" s="36">
+      <c r="I9" s="22">
         <v>0.70689655200000001</v>
       </c>
-      <c r="J9" s="35">
+      <c r="J9" s="21">
         <v>0.691399663</v>
       </c>
       <c r="K9" s="6">
         <v>0.699062234</v>
       </c>
-      <c r="L9" s="36">
+      <c r="L9" s="22">
         <v>0.754146341</v>
       </c>
-      <c r="M9" s="35">
+      <c r="M9" s="21">
         <v>0.68956289000000004</v>
       </c>
       <c r="N9" s="6">
         <v>0.72041006500000004</v>
       </c>
-      <c r="O9" s="36">
+      <c r="O9" s="22">
         <v>0.83649635</v>
       </c>
-      <c r="P9" s="35">
+      <c r="P9" s="21">
         <v>0.80195941199999998</v>
       </c>
       <c r="Q9" s="6">
@@ -3889,11 +3955,11 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A10" s="38" t="s">
+      <c r="A10" s="24" t="s">
         <v>23</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C10" s="9">
         <v>0.54673283705541698</v>
@@ -3942,52 +4008,52 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" s="37" t="s">
+      <c r="A11" s="23" t="s">
         <v>26</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C11" s="36">
+        <v>65</v>
+      </c>
+      <c r="C11" s="22">
         <v>0.40690505500000002</v>
       </c>
-      <c r="D11" s="35">
+      <c r="D11" s="21">
         <v>0.39592081600000001</v>
       </c>
       <c r="E11" s="6">
         <v>0.401337793</v>
       </c>
-      <c r="F11" s="36">
+      <c r="F11" s="22">
         <v>0.72477939400000002</v>
       </c>
-      <c r="G11" s="35">
+      <c r="G11" s="21">
         <v>0.64915091300000005</v>
       </c>
       <c r="H11" s="6">
         <v>0.68488365500000004</v>
       </c>
-      <c r="I11" s="36">
+      <c r="I11" s="22">
         <v>0.69548243200000004</v>
       </c>
-      <c r="J11" s="35">
+      <c r="J11" s="21">
         <v>0.70095559299999999</v>
       </c>
       <c r="K11" s="6">
         <v>0.69820828700000004</v>
       </c>
-      <c r="L11" s="36">
+      <c r="L11" s="22">
         <v>0.80340264699999997</v>
       </c>
-      <c r="M11" s="35">
+      <c r="M11" s="21">
         <v>0.75825156100000002</v>
       </c>
       <c r="N11" s="6">
         <v>0.78017439200000005</v>
       </c>
-      <c r="O11" s="36">
+      <c r="O11" s="22">
         <v>0.82813633099999995</v>
       </c>
-      <c r="P11" s="35">
+      <c r="P11" s="21">
         <v>0.79916025199999996</v>
       </c>
       <c r="Q11" s="6">
@@ -3995,11 +4061,11 @@
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12" s="38" t="s">
+      <c r="A12" s="24" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C12" s="9">
         <v>0.47863247863247799</v>
@@ -4048,122 +4114,122 @@
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A13" s="39" t="s">
+      <c r="A13" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C13" s="11">
+      <c r="B13" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="22">
         <v>0.44208494199999998</v>
       </c>
-      <c r="D13" s="33">
+      <c r="D13" s="21">
         <v>0.41211757599999999</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="6">
         <v>0.426575598</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="22">
         <v>0.76608466900000005</v>
       </c>
-      <c r="G13" s="33">
+      <c r="G13" s="21">
         <v>0.68418241999999996</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="6">
         <v>0.72282087399999995</v>
       </c>
-      <c r="I13" s="11">
+      <c r="I13" s="22">
         <v>0.69811320799999999</v>
       </c>
-      <c r="J13" s="33">
+      <c r="J13" s="21">
         <v>0.68634064100000003</v>
       </c>
-      <c r="K13" s="7">
+      <c r="K13" s="6">
         <v>0.69217687100000003</v>
       </c>
-      <c r="L13" s="11">
+      <c r="L13" s="22">
         <v>0.74310180800000003</v>
       </c>
-      <c r="M13" s="33">
+      <c r="M13" s="21">
         <v>0.69669937599999998</v>
       </c>
-      <c r="N13" s="7">
+      <c r="N13" s="6">
         <v>0.71915285500000004</v>
       </c>
-      <c r="O13" s="11">
+      <c r="O13" s="22">
         <v>0.84977908700000004</v>
       </c>
-      <c r="P13" s="33">
+      <c r="P13" s="21">
         <v>0.807557733</v>
       </c>
-      <c r="Q13" s="7">
+      <c r="Q13" s="6">
         <v>0.82813060599999999</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C14" s="11">
+      <c r="B14" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="9">
         <v>0.59716599190283404</v>
       </c>
-      <c r="D14" s="33">
+      <c r="D14" s="10">
         <v>0.35392921415716799</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="12">
         <v>0.44444444444444398</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="9">
         <v>0.79002756201453195</v>
       </c>
-      <c r="G14" s="33">
+      <c r="G14" s="10">
         <v>0.67350208266581202</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="12">
         <v>0.72712597290285297</v>
       </c>
-      <c r="I14" s="11">
+      <c r="I14" s="9">
         <v>0.72099940511600202</v>
       </c>
-      <c r="J14" s="33">
+      <c r="J14" s="10">
         <v>0.68128161888701499</v>
       </c>
-      <c r="K14" s="7">
+      <c r="K14" s="12">
         <v>0.70057803468208002</v>
       </c>
-      <c r="L14" s="11">
+      <c r="L14" s="9">
         <v>0.75411423039690195</v>
       </c>
-      <c r="M14" s="33">
+      <c r="M14" s="10">
         <v>0.69491525423728795</v>
       </c>
-      <c r="N14" s="7">
+      <c r="N14" s="12">
         <v>0.72330547818012902</v>
       </c>
-      <c r="O14" s="11">
+      <c r="O14" s="9">
         <v>0.85852568875651503</v>
       </c>
-      <c r="P14" s="33">
+      <c r="P14" s="10">
         <v>0.806857942617214</v>
       </c>
-      <c r="Q14" s="7">
+      <c r="Q14" s="12">
         <v>0.83189033189033101</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A15" s="39" t="s">
-        <v>45</v>
+      <c r="A15" s="25" t="s">
+        <v>44</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C15" s="11">
         <v>0.455591054</v>
       </c>
-      <c r="D15" s="33">
+      <c r="D15">
         <v>0.42771445699999999</v>
       </c>
       <c r="E15" s="7">
@@ -4172,7 +4238,7 @@
       <c r="F15" s="11">
         <v>0.91834721600000002</v>
       </c>
-      <c r="G15" s="33">
+      <c r="G15">
         <v>0.89471436199999999</v>
       </c>
       <c r="H15" s="7">
@@ -4181,7 +4247,7 @@
       <c r="I15" s="11">
         <v>0.91835585600000003</v>
       </c>
-      <c r="J15" s="33">
+      <c r="J15">
         <v>0.91680719499999996</v>
       </c>
       <c r="K15" s="7">
@@ -4190,7 +4256,7 @@
       <c r="L15" s="11">
         <v>0.87914055499999999</v>
       </c>
-      <c r="M15" s="33">
+      <c r="M15">
         <v>0.87600356800000001</v>
       </c>
       <c r="N15" s="7">
@@ -4199,7 +4265,7 @@
       <c r="O15" s="11">
         <v>0.89147286800000003</v>
       </c>
-      <c r="P15" s="33">
+      <c r="P15">
         <v>0.88523443000000002</v>
       </c>
       <c r="Q15" s="7">
@@ -4207,11 +4273,11 @@
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A16" s="38" t="s">
-        <v>45</v>
+      <c r="A16" s="24" t="s">
+        <v>44</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C16" s="9">
         <v>0.47244623655913898</v>
@@ -4260,16 +4326,16 @@
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A17" s="39" t="s">
-        <v>47</v>
+      <c r="A17" s="25" t="s">
+        <v>46</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C17" s="11">
         <v>0.39178082199999997</v>
       </c>
-      <c r="D17" s="33">
+      <c r="D17">
         <v>0.34313137399999999</v>
       </c>
       <c r="E17" s="7">
@@ -4278,7 +4344,7 @@
       <c r="F17" s="11">
         <v>0.77731577699999999</v>
       </c>
-      <c r="G17" s="33">
+      <c r="G17">
         <v>0.71870995299999996</v>
       </c>
       <c r="H17" s="7">
@@ -4287,7 +4353,7 @@
       <c r="I17" s="11">
         <v>0.78030303000000001</v>
       </c>
-      <c r="J17" s="33">
+      <c r="J17">
         <v>0.75267003899999996</v>
       </c>
       <c r="K17" s="7">
@@ -4296,7 +4362,7 @@
       <c r="L17" s="11">
         <v>0.68162839200000003</v>
       </c>
-      <c r="M17" s="33">
+      <c r="M17">
         <v>0.58251561100000004</v>
       </c>
       <c r="N17" s="7">
@@ -4305,74 +4371,922 @@
       <c r="O17" s="11">
         <v>0.78183172000000001</v>
       </c>
-      <c r="P17" s="33">
+      <c r="P17">
         <v>0.73477956600000005</v>
       </c>
       <c r="Q17" s="7">
         <v>0.75757575799999999</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A18" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" s="12" t="s">
+    <row r="18" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="31">
+        <v>0.39258750857927199</v>
+      </c>
+      <c r="D18" s="32">
+        <v>0.34313137372525399</v>
+      </c>
+      <c r="E18" s="30">
+        <v>0.36619718309859101</v>
+      </c>
+      <c r="F18" s="31">
+        <v>0.796163069544364</v>
+      </c>
+      <c r="G18" s="32">
+        <v>0.70909867577958097</v>
+      </c>
+      <c r="H18" s="30">
+        <v>0.75011296882060496</v>
+      </c>
+      <c r="I18" s="31">
+        <v>0.81219211822660098</v>
+      </c>
+      <c r="J18" s="32">
+        <v>0.74142776840921798</v>
+      </c>
+      <c r="K18" s="30">
+        <v>0.77519835439318197</v>
+      </c>
+      <c r="L18" s="31">
+        <v>0.69181721572794896</v>
+      </c>
+      <c r="M18" s="32">
+        <v>0.58073148974130195</v>
+      </c>
+      <c r="N18" s="30">
+        <v>0.63142580019398598</v>
+      </c>
+      <c r="O18" s="31">
+        <v>0.78678678678678604</v>
+      </c>
+      <c r="P18" s="32">
+        <v>0.73337998600419796</v>
+      </c>
+      <c r="Q18" s="30">
+        <v>0.75914523723288596</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A19" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C18" s="9">
-        <v>0.39258750857927199</v>
-      </c>
-      <c r="D18" s="10">
-        <v>0.34313137372525399</v>
-      </c>
-      <c r="E18" s="12">
-        <v>0.36619718309859101</v>
-      </c>
-      <c r="F18" s="9">
-        <v>0.796163069544364</v>
-      </c>
-      <c r="G18" s="10">
-        <v>0.70909867577958097</v>
-      </c>
-      <c r="H18" s="12">
-        <v>0.75011296882060496</v>
-      </c>
-      <c r="I18" s="9">
-        <v>0.81219211822660098</v>
-      </c>
-      <c r="J18" s="10">
-        <v>0.74142776840921798</v>
-      </c>
-      <c r="K18" s="12">
-        <v>0.77519835439318197</v>
-      </c>
-      <c r="L18" s="9">
-        <v>0.69181721572794896</v>
-      </c>
-      <c r="M18" s="10">
-        <v>0.58073148974130195</v>
-      </c>
-      <c r="N18" s="12">
-        <v>0.63142580019398598</v>
-      </c>
-      <c r="O18" s="9">
-        <v>0.78678678678678604</v>
-      </c>
-      <c r="P18" s="10">
-        <v>0.73337998600419796</v>
-      </c>
-      <c r="Q18" s="12">
-        <v>0.75914523723288596</v>
+      <c r="C19" s="34">
+        <v>0.81156316900000003</v>
+      </c>
+      <c r="D19" s="35">
+        <v>0.68206358700000003</v>
+      </c>
+      <c r="E19" s="33">
+        <v>0.74119947799999997</v>
+      </c>
+      <c r="F19" s="35">
+        <v>0.93985129300000003</v>
+      </c>
+      <c r="G19" s="35">
+        <v>0.90451778299999996</v>
+      </c>
+      <c r="H19" s="33">
+        <v>0.92184608700000004</v>
+      </c>
+      <c r="I19" s="35">
+        <v>0.96111433499999999</v>
+      </c>
+      <c r="J19" s="35">
+        <v>0.93086003399999995</v>
+      </c>
+      <c r="K19" s="33">
+        <v>0.94574528800000002</v>
+      </c>
+      <c r="L19" s="35">
+        <v>0.92824074099999998</v>
+      </c>
+      <c r="M19" s="35">
+        <v>0.71543264900000003</v>
+      </c>
+      <c r="N19" s="33">
+        <v>0.80806045299999996</v>
+      </c>
+      <c r="O19" s="35">
+        <v>0.94027676599999999</v>
+      </c>
+      <c r="P19" s="35">
+        <v>0.90342897099999997</v>
+      </c>
+      <c r="Q19" s="33">
+        <v>0.92148465400000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A20" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="9">
+        <v>0.673195299384443</v>
+      </c>
+      <c r="D20" s="10">
+        <v>0.72165566886622601</v>
+      </c>
+      <c r="E20" s="12">
+        <v>0.69658367110596398</v>
+      </c>
+      <c r="F20" s="10">
+        <v>0.89318600368324097</v>
+      </c>
+      <c r="G20" s="10">
+        <v>0.93239346363344999</v>
+      </c>
+      <c r="H20" s="12">
+        <v>0.91236870982912599</v>
+      </c>
+      <c r="I20" s="10">
+        <v>0.93318729463307704</v>
+      </c>
+      <c r="J20" s="10">
+        <v>0.95784148397976299</v>
+      </c>
+      <c r="K20" s="12">
+        <v>0.94535367545076199</v>
+      </c>
+      <c r="L20" s="10">
+        <v>0.851121076233183</v>
+      </c>
+      <c r="M20" s="10">
+        <v>0.84656556645851899</v>
+      </c>
+      <c r="N20" s="12">
+        <v>0.84883720930232498</v>
+      </c>
+      <c r="O20" s="10">
+        <v>0.93263888888888802</v>
+      </c>
+      <c r="P20" s="10">
+        <v>0.939818054583624</v>
+      </c>
+      <c r="Q20" s="12">
+        <v>0.93621470895782499</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A21" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="22">
+        <v>0.80647482000000004</v>
+      </c>
+      <c r="D21" s="21">
+        <v>0.67246550699999996</v>
+      </c>
+      <c r="E21" s="6">
+        <v>0.73339875700000001</v>
+      </c>
+      <c r="F21" s="21">
+        <v>0.91334639699999998</v>
+      </c>
+      <c r="G21" s="21">
+        <v>0.89608031600000004</v>
+      </c>
+      <c r="H21" s="6">
+        <v>0.90463097699999995</v>
+      </c>
+      <c r="I21" s="21">
+        <v>0.93064877000000001</v>
+      </c>
+      <c r="J21" s="21">
+        <v>0.93535694199999997</v>
+      </c>
+      <c r="K21" s="6">
+        <v>0.93299691600000001</v>
+      </c>
+      <c r="L21" s="21">
+        <v>0.89515219800000001</v>
+      </c>
+      <c r="M21" s="21">
+        <v>0.70829616399999995</v>
+      </c>
+      <c r="N21" s="6">
+        <v>0.79083665299999995</v>
+      </c>
+      <c r="O21" s="21">
+        <v>0.939504373</v>
+      </c>
+      <c r="P21" s="21">
+        <v>0.90202939100000001</v>
+      </c>
+      <c r="Q21" s="6">
+        <v>0.92038557700000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A22" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="9">
+        <v>0.67321428571428499</v>
+      </c>
+      <c r="D22" s="10">
+        <v>0.67846430713857198</v>
+      </c>
+      <c r="E22" s="12">
+        <v>0.67582910068718205</v>
+      </c>
+      <c r="F22" s="10">
+        <v>0.84036823033982899</v>
+      </c>
+      <c r="G22" s="10">
+        <v>0.91647976076044002</v>
+      </c>
+      <c r="H22" s="12">
+        <v>0.87677531419229504</v>
+      </c>
+      <c r="I22" s="10">
+        <v>0.855397148676171</v>
+      </c>
+      <c r="J22" s="10">
+        <v>0.94435075885328801</v>
+      </c>
+      <c r="K22" s="12">
+        <v>0.89767566123430398</v>
+      </c>
+      <c r="L22" s="10">
+        <v>0.82774252039891205</v>
+      </c>
+      <c r="M22" s="10">
+        <v>0.81445138269402295</v>
+      </c>
+      <c r="N22" s="12">
+        <v>0.82104316546762501</v>
+      </c>
+      <c r="O22" s="10">
+        <v>0.91938846421125697</v>
+      </c>
+      <c r="P22" s="10">
+        <v>0.92582225332400203</v>
+      </c>
+      <c r="Q22" s="12">
+        <v>0.92259414225941405</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A23" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="22">
+        <v>0.79192333999999998</v>
+      </c>
+      <c r="D23" s="21">
+        <v>0.69406118800000005</v>
+      </c>
+      <c r="E23" s="6">
+        <v>0.73976982099999999</v>
+      </c>
+      <c r="F23" s="21">
+        <v>0.94072251399999995</v>
+      </c>
+      <c r="G23" s="21">
+        <v>0.89832318700000002</v>
+      </c>
+      <c r="H23" s="6">
+        <v>0.919034091</v>
+      </c>
+      <c r="I23" s="21">
+        <v>0.96374269000000001</v>
+      </c>
+      <c r="J23" s="21">
+        <v>0.92636312499999995</v>
+      </c>
+      <c r="K23" s="6">
+        <v>0.94468328999999995</v>
+      </c>
+      <c r="L23" s="21">
+        <v>0.92824074099999998</v>
+      </c>
+      <c r="M23" s="21">
+        <v>0.71543264900000003</v>
+      </c>
+      <c r="N23" s="6">
+        <v>0.80806045299999996</v>
+      </c>
+      <c r="O23" s="21">
+        <v>0.94117647100000001</v>
+      </c>
+      <c r="P23" s="21">
+        <v>0.90692792200000005</v>
+      </c>
+      <c r="Q23" s="6">
+        <v>0.92373485399999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A24" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="9">
+        <v>0.71869639794168005</v>
+      </c>
+      <c r="D24" s="10">
+        <v>0.75404919016196703</v>
+      </c>
+      <c r="E24" s="12">
+        <v>0.73594847775175598</v>
+      </c>
+      <c r="F24" s="10">
+        <v>0.89585921325051698</v>
+      </c>
+      <c r="G24" s="10">
+        <v>0.92427640713446502</v>
+      </c>
+      <c r="H24" s="12">
+        <v>0.90984597592388095</v>
+      </c>
+      <c r="I24" s="10">
+        <v>0.93092105263157898</v>
+      </c>
+      <c r="J24" s="10">
+        <v>0.95446880269814505</v>
+      </c>
+      <c r="K24" s="12">
+        <v>0.94254787676935803</v>
+      </c>
+      <c r="L24" s="10">
+        <v>0.84243509400178995</v>
+      </c>
+      <c r="M24" s="10">
+        <v>0.83942908117752002</v>
+      </c>
+      <c r="N24" s="12">
+        <v>0.84092940125111604</v>
+      </c>
+      <c r="O24" s="10">
+        <v>0.92708333333333304</v>
+      </c>
+      <c r="P24" s="10">
+        <v>0.93421973407977599</v>
+      </c>
+      <c r="Q24" s="12">
+        <v>0.930637852910421</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A25" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" s="22">
+        <v>0.84656084700000001</v>
+      </c>
+      <c r="D25" s="21">
+        <v>0.67186562699999997</v>
+      </c>
+      <c r="E25" s="6">
+        <v>0.74916388</v>
+      </c>
+      <c r="F25" s="21">
+        <v>0.92172858599999996</v>
+      </c>
+      <c r="G25" s="21">
+        <v>0.89298301800000002</v>
+      </c>
+      <c r="H25" s="6">
+        <v>0.90712813299999995</v>
+      </c>
+      <c r="I25" s="21">
+        <v>0.88786565500000003</v>
+      </c>
+      <c r="J25" s="21">
+        <v>0.92130410299999999</v>
+      </c>
+      <c r="K25" s="6">
+        <v>0.90427586199999999</v>
+      </c>
+      <c r="L25" s="21">
+        <v>0.84946236600000002</v>
+      </c>
+      <c r="M25" s="21">
+        <v>0.70472792100000003</v>
+      </c>
+      <c r="N25" s="6">
+        <v>0.77035592399999997</v>
+      </c>
+      <c r="O25" s="21">
+        <v>0.92379582999999998</v>
+      </c>
+      <c r="P25" s="21">
+        <v>0.89923023099999999</v>
+      </c>
+      <c r="Q25" s="6">
+        <v>0.91134751800000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A26" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="9">
+        <v>0.76180971390552199</v>
+      </c>
+      <c r="D26" s="10">
+        <v>0.68686262747450499</v>
+      </c>
+      <c r="E26" s="12">
+        <v>0.72239747634069396</v>
+      </c>
+      <c r="F26" s="10">
+        <v>0.86754225208715097</v>
+      </c>
+      <c r="G26" s="10">
+        <v>0.91007155826124098</v>
+      </c>
+      <c r="H26" s="12">
+        <v>0.88829814959603803</v>
+      </c>
+      <c r="I26" s="10">
+        <v>0.81693587860988703</v>
+      </c>
+      <c r="J26" s="10">
+        <v>0.93816750983698705</v>
+      </c>
+      <c r="K26" s="12">
+        <v>0.87336473050758701</v>
+      </c>
+      <c r="L26" s="10">
+        <v>0.80376344086021501</v>
+      </c>
+      <c r="M26" s="10">
+        <v>0.80017841213202501</v>
+      </c>
+      <c r="N26" s="12">
+        <v>0.801966919982119</v>
+      </c>
+      <c r="O26" s="10">
+        <v>0.90096286107290202</v>
+      </c>
+      <c r="P26" s="10">
+        <v>0.91672498250524803</v>
+      </c>
+      <c r="Q26" s="12">
+        <v>0.90877558099202205</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A27" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" s="22">
+        <v>0.78947368399999995</v>
+      </c>
+      <c r="D27" s="21">
+        <v>0.69286142799999995</v>
+      </c>
+      <c r="E27" s="6">
+        <v>0.73801916899999997</v>
+      </c>
+      <c r="F27" s="21">
+        <v>0.93806293799999996</v>
+      </c>
+      <c r="G27" s="21">
+        <v>0.90099327100000004</v>
+      </c>
+      <c r="H27" s="6">
+        <v>0.91915449999999999</v>
+      </c>
+      <c r="I27" s="21">
+        <v>0.956622325</v>
+      </c>
+      <c r="J27" s="21">
+        <v>0.92973580700000003</v>
+      </c>
+      <c r="K27" s="6">
+        <v>0.94298745699999997</v>
+      </c>
+      <c r="L27" s="21">
+        <v>0.92996555700000005</v>
+      </c>
+      <c r="M27" s="21">
+        <v>0.72256913499999997</v>
+      </c>
+      <c r="N27" s="6">
+        <v>0.813253012</v>
+      </c>
+      <c r="O27" s="21">
+        <v>0.94169096200000002</v>
+      </c>
+      <c r="P27" s="21">
+        <v>0.90412876099999995</v>
+      </c>
+      <c r="Q27" s="6">
+        <v>0.92252766900000005</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A28" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" s="9">
+        <v>0.73226950354609899</v>
+      </c>
+      <c r="D28" s="10">
+        <v>0.74325134973005402</v>
+      </c>
+      <c r="E28" s="12">
+        <v>0.73771955939267597</v>
+      </c>
+      <c r="F28" s="10">
+        <v>0.87628341974179103</v>
+      </c>
+      <c r="G28" s="10">
+        <v>0.92064509238491898</v>
+      </c>
+      <c r="H28" s="12">
+        <v>0.89791666666666603</v>
+      </c>
+      <c r="I28" s="10">
+        <v>0.92039258451472195</v>
+      </c>
+      <c r="J28" s="10">
+        <v>0.94884766722878</v>
+      </c>
+      <c r="K28" s="12">
+        <v>0.93440354276224702</v>
+      </c>
+      <c r="L28" s="10">
+        <v>0.86029411764705799</v>
+      </c>
+      <c r="M28" s="10">
+        <v>0.83496877787689505</v>
+      </c>
+      <c r="N28" s="12">
+        <v>0.84744228157537305</v>
+      </c>
+      <c r="O28" s="10">
+        <v>0.92063492063492003</v>
+      </c>
+      <c r="P28" s="10">
+        <v>0.93351994401679494</v>
+      </c>
+      <c r="Q28" s="12">
+        <v>0.92703266157053499</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A29" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" s="22">
+        <v>0.85053110799999998</v>
+      </c>
+      <c r="D29" s="21">
+        <v>0.67246550699999996</v>
+      </c>
+      <c r="E29" s="6">
+        <v>0.75108877699999999</v>
+      </c>
+      <c r="F29" s="21">
+        <v>0.91509640699999995</v>
+      </c>
+      <c r="G29" s="21">
+        <v>0.89212859099999997</v>
+      </c>
+      <c r="H29" s="6">
+        <v>0.90346655099999995</v>
+      </c>
+      <c r="I29" s="21">
+        <v>0.88178398700000005</v>
+      </c>
+      <c r="J29" s="21">
+        <v>0.92242833099999999</v>
+      </c>
+      <c r="K29" s="6">
+        <v>0.90164835200000004</v>
+      </c>
+      <c r="L29" s="21">
+        <v>0.85432639600000004</v>
+      </c>
+      <c r="M29" s="21">
+        <v>0.69580731500000004</v>
+      </c>
+      <c r="N29" s="6">
+        <v>0.76696165199999999</v>
+      </c>
+      <c r="O29" s="21">
+        <v>0.92456896600000005</v>
+      </c>
+      <c r="P29" s="21">
+        <v>0.90062981099999995</v>
+      </c>
+      <c r="Q29" s="6">
+        <v>0.91244239599999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A30" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" s="9">
+        <v>0.794096978215038</v>
+      </c>
+      <c r="D30" s="10">
+        <v>0.67786442711457695</v>
+      </c>
+      <c r="E30" s="12">
+        <v>0.73139158576051699</v>
+      </c>
+      <c r="F30" s="10">
+        <v>0.86080437645628605</v>
+      </c>
+      <c r="G30" s="10">
+        <v>0.90750827726156102</v>
+      </c>
+      <c r="H30" s="12">
+        <v>0.88353956535302003</v>
+      </c>
+      <c r="I30" s="10">
+        <v>0.81283684468397799</v>
+      </c>
+      <c r="J30" s="10">
+        <v>0.932546374367622</v>
+      </c>
+      <c r="K30" s="12">
+        <v>0.86858638743455496</v>
+      </c>
+      <c r="L30" s="10">
+        <v>0.80392156862745101</v>
+      </c>
+      <c r="M30" s="10">
+        <v>0.80463871543264898</v>
+      </c>
+      <c r="N30" s="12">
+        <v>0.80427998216674002</v>
+      </c>
+      <c r="O30" s="10">
+        <v>0.90364762560220202</v>
+      </c>
+      <c r="P30" s="10">
+        <v>0.91882435269419105</v>
+      </c>
+      <c r="Q30" s="12">
+        <v>0.91117279666897899</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A31" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" s="22">
+        <v>0.86809137800000002</v>
+      </c>
+      <c r="D31" s="21">
+        <v>0.70665866799999999</v>
+      </c>
+      <c r="E31" s="6">
+        <v>0.77910052900000004</v>
+      </c>
+      <c r="F31" s="21">
+        <v>0.94087033600000003</v>
+      </c>
+      <c r="G31" s="21">
+        <v>0.90731446900000001</v>
+      </c>
+      <c r="H31" s="6">
+        <v>0.92378777999999995</v>
+      </c>
+      <c r="I31" s="21">
+        <v>0.962406015</v>
+      </c>
+      <c r="J31" s="21">
+        <v>0.93535694199999997</v>
+      </c>
+      <c r="K31" s="6">
+        <v>0.94868871200000005</v>
+      </c>
+      <c r="L31" s="21">
+        <v>0.93155452400000005</v>
+      </c>
+      <c r="M31" s="21">
+        <v>0.71632470999999998</v>
+      </c>
+      <c r="N31" s="6">
+        <v>0.80988401399999999</v>
+      </c>
+      <c r="O31" s="21">
+        <v>0.94040697699999998</v>
+      </c>
+      <c r="P31" s="21">
+        <v>0.90552834100000001</v>
+      </c>
+      <c r="Q31" s="6">
+        <v>0.92263814600000005</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A32" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" s="9">
+        <v>0.79415347137637005</v>
+      </c>
+      <c r="D32" s="10">
+        <v>0.78224355128974199</v>
+      </c>
+      <c r="E32" s="12">
+        <v>0.78815352070111799</v>
+      </c>
+      <c r="F32" s="10">
+        <v>0.92369688088758595</v>
+      </c>
+      <c r="G32" s="10">
+        <v>0.94233849439401995</v>
+      </c>
+      <c r="H32" s="12">
+        <v>0.93292457318040001</v>
+      </c>
+      <c r="I32" s="10">
+        <v>0.93264530146659397</v>
+      </c>
+      <c r="J32" s="10">
+        <v>0.965148960089938</v>
+      </c>
+      <c r="K32" s="12">
+        <v>0.94861878453038595</v>
+      </c>
+      <c r="L32" s="10">
+        <v>0.90124555160142295</v>
+      </c>
+      <c r="M32" s="10">
+        <v>0.90365744870651199</v>
+      </c>
+      <c r="N32" s="12">
+        <v>0.90244988864142495</v>
+      </c>
+      <c r="O32" s="10">
+        <v>0.93189715079916602</v>
+      </c>
+      <c r="P32" s="10">
+        <v>0.93841847445766202</v>
+      </c>
+      <c r="Q32" s="12">
+        <v>0.93514644351464404</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A33" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33">
+        <v>0.82415254199999999</v>
+      </c>
+      <c r="D33">
+        <v>0.70005998800000002</v>
+      </c>
+      <c r="E33" s="7">
+        <v>0.75705481699999999</v>
+      </c>
+      <c r="F33">
+        <v>0.92088366499999996</v>
+      </c>
+      <c r="G33">
+        <v>0.90357714899999997</v>
+      </c>
+      <c r="H33" s="7">
+        <v>0.91214832400000001</v>
+      </c>
+      <c r="I33">
+        <v>0.93810335</v>
+      </c>
+      <c r="J33">
+        <v>0.92861157999999999</v>
+      </c>
+      <c r="K33" s="7">
+        <v>0.93333333299999999</v>
+      </c>
+      <c r="L33">
+        <v>0.90092165899999999</v>
+      </c>
+      <c r="M33">
+        <v>0.69759143599999995</v>
+      </c>
+      <c r="N33" s="7">
+        <v>0.786324786</v>
+      </c>
+      <c r="O33">
+        <v>0.93420101200000005</v>
+      </c>
+      <c r="P33">
+        <v>0.90412876099999995</v>
+      </c>
+      <c r="Q33" s="7">
+        <v>0.918918919</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A34" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" s="10">
+        <v>0.73264936632468303</v>
+      </c>
+      <c r="D34" s="10">
+        <v>0.72825434913017395</v>
+      </c>
+      <c r="E34" s="12">
+        <v>0.73044524669073396</v>
+      </c>
+      <c r="F34" s="10">
+        <v>0.85039215686274505</v>
+      </c>
+      <c r="G34" s="10">
+        <v>0.92631354122169995</v>
+      </c>
+      <c r="H34" s="12">
+        <v>0.88673072991208302</v>
+      </c>
+      <c r="I34" s="10">
+        <v>0.88368421052631496</v>
+      </c>
+      <c r="J34" s="10">
+        <v>0.94378864530635098</v>
+      </c>
+      <c r="K34" s="12">
+        <v>0.91274802935580301</v>
+      </c>
+      <c r="L34" s="10">
+        <v>0.80535714285714199</v>
+      </c>
+      <c r="M34" s="10">
+        <v>0.80463871543264898</v>
+      </c>
+      <c r="N34" s="12">
+        <v>0.80499776885318997</v>
+      </c>
+      <c r="O34" s="10">
+        <v>0.90834473324213405</v>
+      </c>
+      <c r="P34" s="10">
+        <v>0.92932120363890802</v>
+      </c>
+      <c r="Q34" s="12">
+        <v>0.91871324801106802</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="O1:Q1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="L1:N1"/>
-    <mergeCell ref="O1:Q1"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
